--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348979.414742497</v>
+        <v>1433571.558995738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11432814.32020745</v>
+        <v>12433754.73901463</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3182793.12974176</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9830634.180962663</v>
+        <v>9422480.494179025</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="F2" t="n">
-        <v>219.4450108596165</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>127.4695742187188</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>81.39297035804702</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>161.5969638805505</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>234.7512066213356</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>317.5081495243562</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>176.7525893432305</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>312.287106964264</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>108.1296313179147</v>
+        <v>94.01296546539875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>317.5081495243562</v>
+        <v>71.86339769075983</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>55.34321465635224</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9231144443526</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.51734429384133</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>40.49241643459277</v>
+        <v>33.74703566813373</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.96826885372126</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8479345336815</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>68.40779415371989</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>27.76806662239539</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.168352814167903</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.7498872189865</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>203.2638892882386</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.857549202979</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.254075651487</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>119.75321198955</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>223.4493917260188</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>203.2027954295957</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>22.89298679328147</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>137.3933718678784</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>267.3434267027867</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.3434267027876</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>57.89934023899456</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835127</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>168.1158122680967</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>62.88217452961477</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>52.24473664471233</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>141.419451033963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2141,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>136.3896895755402</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>106.5867442799587</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>171.9731989154908</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>57.92518451681089</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.0462988210284</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>217.9962531155211</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>308.9203564757136</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>207.5654864559839</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.8314371278614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>321.4267434728692</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>210.6180377869399</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.2594250626526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>141.4194510339621</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.70180932883941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>111.2527235042577</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>75.45713216103701</v>
+        <v>235.9375844494537</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>155.7123319296402</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>348.6293399532728</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>304.4930832847261</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>36.15999212057454</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>6.63834627952837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>44.43736064133262</v>
       </c>
       <c r="G41" t="n">
-        <v>83.03275334316807</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247585</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>15.07437110675763</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971796</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>186.6141597285321</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.1208591572337</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>57.62734366015432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>936.7014129773083</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>670.3237564101303</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4337,7 +4339,7 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
@@ -4370,10 +4372,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480922</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>691.0742594480922</v>
+        <v>926.0983743305515</v>
       </c>
       <c r="V3" t="n">
-        <v>455.9221512163495</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>455.9221512163495</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>373.7070296425646</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.5795646275102</v>
+        <v>670.8336844174944</v>
       </c>
       <c r="C4" t="n">
-        <v>337.5795646275102</v>
+        <v>501.8975014895875</v>
       </c>
       <c r="D4" t="n">
-        <v>337.5795646275102</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640391</v>
+        <v>891.6262635610245</v>
       </c>
       <c r="V4" t="n">
-        <v>574.7019955581522</v>
+        <v>891.6262635610245</v>
       </c>
       <c r="W4" t="n">
-        <v>337.5795646275102</v>
+        <v>891.6262635610245</v>
       </c>
       <c r="X4" t="n">
-        <v>337.5795646275102</v>
+        <v>891.6262635610245</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.5795646275102</v>
+        <v>670.8336844174944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="C5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="D5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="F5" t="n">
-        <v>628.6019929977153</v>
+        <v>856.9279689114151</v>
       </c>
       <c r="G5" t="n">
-        <v>450.0640239641492</v>
+        <v>440.481659924464</v>
       </c>
       <c r="H5" t="n">
-        <v>134.6225017780239</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>25.4006519619485</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J5" t="n">
-        <v>69.22844826754175</v>
+        <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>185.6534719914501</v>
+        <v>270.9975490818687</v>
       </c>
       <c r="L5" t="n">
-        <v>366.9907707837226</v>
+        <v>509.5409587373975</v>
       </c>
       <c r="M5" t="n">
-        <v>600.432893091082</v>
+        <v>806.6359018176469</v>
       </c>
       <c r="N5" t="n">
-        <v>842.2661613724325</v>
+        <v>1113.151960058968</v>
       </c>
       <c r="O5" t="n">
-        <v>1057.287197778938</v>
+        <v>1389.251120836695</v>
       </c>
       <c r="P5" t="n">
-        <v>1206.301676805441</v>
+        <v>1590.394365921686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1270.032598097425</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="R5" t="n">
-        <v>1270.032598097425</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S5" t="n">
-        <v>1270.032598097425</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="T5" t="n">
-        <v>1270.032598097425</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="U5" t="n">
-        <v>1270.032598097425</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="V5" t="n">
-        <v>949.3172955475701</v>
+        <v>1620.682528971137</v>
       </c>
       <c r="W5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="X5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.3172955475701</v>
+        <v>1267.913873701023</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303.1106268839553</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="C6" t="n">
-        <v>303.1106268839553</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="D6" t="n">
-        <v>303.1106268839553</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="E6" t="n">
-        <v>303.1106268839553</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="F6" t="n">
-        <v>303.1106268839553</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="G6" t="n">
-        <v>165.8145516876395</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
-        <v>66.30208270396139</v>
+        <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>25.4006519619485</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J6" t="n">
-        <v>157.5164652211088</v>
+        <v>59.47586665324427</v>
       </c>
       <c r="K6" t="n">
-        <v>280.3850846022963</v>
+        <v>443.2235805075022</v>
       </c>
       <c r="L6" t="n">
-        <v>448.5402233180094</v>
+        <v>653.4921936302369</v>
       </c>
       <c r="M6" t="n">
-        <v>664.1262070060171</v>
+        <v>918.2226155869778</v>
       </c>
       <c r="N6" t="n">
-        <v>899.8267551018782</v>
+        <v>1204.368308998705</v>
       </c>
       <c r="O6" t="n">
-        <v>1093.226913571143</v>
+        <v>1443.915920172903</v>
       </c>
       <c r="P6" t="n">
-        <v>1229.114524958606</v>
+        <v>1616.840930787371</v>
       </c>
       <c r="Q6" t="n">
-        <v>1270.032598097425</v>
+        <v>1693.078019232577</v>
       </c>
       <c r="R6" t="n">
-        <v>1257.94343763912</v>
+        <v>1693.271819567864</v>
       </c>
       <c r="S6" t="n">
-        <v>1257.94343763912</v>
+        <v>1550.180157843109</v>
       </c>
       <c r="T6" t="n">
-        <v>1257.94343763912</v>
+        <v>1354.574272178448</v>
       </c>
       <c r="U6" t="n">
-        <v>1029.814210837422</v>
+        <v>1126.458064833932</v>
       </c>
       <c r="V6" t="n">
-        <v>794.6621026056794</v>
+        <v>891.3059566021896</v>
       </c>
       <c r="W6" t="n">
-        <v>540.4247458774778</v>
+        <v>637.068599873988</v>
       </c>
       <c r="X6" t="n">
-        <v>471.3259639040234</v>
+        <v>429.2170996684551</v>
       </c>
       <c r="Y6" t="n">
-        <v>471.3259639040234</v>
+        <v>221.4568009035012</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.71016654433566</v>
+        <v>647.7212998119034</v>
       </c>
       <c r="C7" t="n">
-        <v>62.71016654433566</v>
+        <v>478.7851168839965</v>
       </c>
       <c r="D7" t="n">
-        <v>62.71016654433566</v>
+        <v>328.6684774716608</v>
       </c>
       <c r="E7" t="n">
-        <v>34.66161440050193</v>
+        <v>180.7553838892676</v>
       </c>
       <c r="F7" t="n">
-        <v>34.66161440050193</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="G7" t="n">
-        <v>34.66161440050193</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="H7" t="n">
-        <v>34.66161440050193</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="I7" t="n">
-        <v>34.66161440050193</v>
+        <v>33.86543639135728</v>
       </c>
       <c r="J7" t="n">
-        <v>25.4006519619485</v>
+        <v>36.28512133652185</v>
       </c>
       <c r="K7" t="n">
-        <v>140.3217327959667</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>342.9075849231491</v>
+        <v>396.8594047119584</v>
       </c>
       <c r="M7" t="n">
-        <v>566.8950844533319</v>
+        <v>646.3363778191533</v>
       </c>
       <c r="N7" t="n">
-        <v>790.9912783032179</v>
+        <v>895.3159625361648</v>
       </c>
       <c r="O7" t="n">
-        <v>981.9640888291231</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1121.853637577644</v>
+        <v>1268.828805580466</v>
       </c>
       <c r="Q7" t="n">
-        <v>1135.27082992891</v>
+        <v>1295.862163397014</v>
       </c>
       <c r="R7" t="n">
-        <v>1010.270943849125</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="S7" t="n">
-        <v>804.9538839620157</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="T7" t="n">
-        <v>579.845248403451</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="U7" t="n">
-        <v>290.699717442353</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="V7" t="n">
-        <v>290.699717442353</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="W7" t="n">
-        <v>290.699717442353</v>
+        <v>1178.322155933645</v>
       </c>
       <c r="X7" t="n">
-        <v>62.71016654433566</v>
+        <v>950.3326050356279</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.71016654433566</v>
+        <v>829.3697646421431</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>647.3860360234523</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4820,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.639130613667</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.639130613667</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.639130613667</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1633.499798637855</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
@@ -4887,25 +4889,25 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>777.606906050775</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009995</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.1323075070932</v>
+        <v>611.782675217652</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>611.782675217652</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>611.782675217652</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>463.8695816352589</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>463.8695816352589</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>295.8831169435375</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4993,19 +4995,19 @@
         <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070932</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070932</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.1323075070932</v>
+        <v>793.4311400478917</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.569348694472</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.606831754061</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D11" t="n">
-        <v>764.3411331473101</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E11" t="n">
-        <v>378.5528805490658</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F11" t="n">
-        <v>378.5528805490658</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>378.5528805490658</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W11" t="n">
         <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758594</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,22 +5220,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5255,22 +5257,22 @@
         <v>921.7704558796256</v>
       </c>
       <c r="C14" t="n">
-        <v>863.2862738200351</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5279,13 +5281,13 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5294,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3155.791869823214</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3155.791869823214</v>
+        <v>2692.289580784613</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>2339.520925514499</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>1966.055167253419</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>1575.915835277607</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>732.4676803942466</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>563.5314974663397</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>413.414858054004</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>265.5017644716108</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.46409084602</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.46409084602</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>914.1161452244863</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>2148.434869859537</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1779.472352919126</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1421.206654312375</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>1035.418401714131</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>624.4324969245233</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>209.3600467695198</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X20" t="n">
-        <v>1934.208022973022</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.208022973022</v>
+        <v>2535.034709923659</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5828,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>880.2242361621292</v>
+        <v>1633.759572880769</v>
       </c>
       <c r="C22" t="n">
-        <v>880.2242361621292</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621292</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>880.2242361621292</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X22" t="n">
-        <v>880.2242361621292</v>
+        <v>1815.408037711009</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.2242361621292</v>
+        <v>1815.408037711009</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3220.771661312867</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C25" t="n">
-        <v>3220.771661312867</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D25" t="n">
-        <v>3220.771661312867</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E25" t="n">
-        <v>3220.771661312867</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F25" t="n">
-        <v>3073.881713814957</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.768765573601</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699244</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493358</v>
+        <v>1328.162988501441</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456397</v>
+        <v>1038.74581846448</v>
       </c>
       <c r="X25" t="n">
-        <v>3441.564240456397</v>
+        <v>810.7562675664626</v>
       </c>
       <c r="Y25" t="n">
-        <v>3220.771661312867</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364129</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104703</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104703</v>
+        <v>1495.865825126722</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898816</v>
+        <v>1495.865825126722</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.241807861855</v>
+        <v>1206.448655089761</v>
       </c>
       <c r="X28" t="n">
-        <v>1412.241807861855</v>
+        <v>978.4591041917437</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1485.543352466691</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1099.755099868447</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>688.7691950788396</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3942.370854773037</v>
+        <v>2392.599276780829</v>
       </c>
       <c r="C31" t="n">
-        <v>3773.43467184513</v>
+        <v>2223.663093852922</v>
       </c>
       <c r="D31" t="n">
-        <v>3623.318032432794</v>
+        <v>2073.546454440587</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.404938850401</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.514991352491</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945067</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="T31" t="n">
-        <v>4778.051722419721</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="U31" t="n">
-        <v>4778.051722419721</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="V31" t="n">
-        <v>4778.051722419721</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="W31" t="n">
-        <v>4488.63455238276</v>
+        <v>3023.029871652617</v>
       </c>
       <c r="X31" t="n">
-        <v>4260.645001484743</v>
+        <v>2795.040320754599</v>
       </c>
       <c r="Y31" t="n">
-        <v>4124.019319603276</v>
+        <v>2574.247741611069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2360.432768538145</v>
+        <v>2148.434869859536</v>
       </c>
       <c r="C32" t="n">
-        <v>1991.470251597734</v>
+        <v>1779.472352919125</v>
       </c>
       <c r="D32" t="n">
-        <v>1633.204552990983</v>
+        <v>1421.206654312374</v>
       </c>
       <c r="E32" t="n">
-        <v>1247.416300392739</v>
+        <v>1035.41840171413</v>
       </c>
       <c r="F32" t="n">
-        <v>836.4303956031313</v>
+        <v>624.4324969245224</v>
       </c>
       <c r="G32" t="n">
-        <v>421.3579454481278</v>
+        <v>209.3600467695189</v>
       </c>
       <c r="H32" t="n">
-        <v>123.774345056895</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>438.0622262757421</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>823.704552446997</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1274.738765695406</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1808.27067036733</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2355.049487426112</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2858.021958305449</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3571.377045752395</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>4029.855248261383</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>4088.872314818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>4088.872314818185</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U32" t="n">
-        <v>3835.341838092022</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>3504.278950748451</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>3151.510295478337</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X32" t="n">
-        <v>2778.044537217257</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y32" t="n">
-        <v>2747.032608602267</v>
+        <v>2535.034709923658</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.8091843452891</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>782.3561550641621</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>633.4217454029108</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>474.1842903974552</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>327.6497324243402</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>191.2866322569583</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>100.7847378948258</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>81.77744629636371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>175.454715786981</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>413.7189147673281</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>780.4170750799933</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.693400302309</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.216443856764</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.177723274818</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.677314750921</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2580.318872397521</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2580.174518990037</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.736632483517</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2258.093632161373</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2030.025785295788</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.873677064045</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.636320335844</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.784820130311</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1125.024521365357</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>606.0723959893489</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C34" t="n">
-        <v>606.0723959893489</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D34" t="n">
-        <v>606.0723959893489</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E34" t="n">
-        <v>493.6959076012098</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F34" t="n">
-        <v>346.8059601032994</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G34" t="n">
-        <v>179.1031234780184</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H34" t="n">
-        <v>179.1031234780184</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I34" t="n">
-        <v>81.77744629636371</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9000787432992</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>330.8872616921756</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>647.4470601406717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>991.6041057402207</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1333.012482446085</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>1632.342081366499</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1864.949581800158</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>1942.559877952673</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1852.729420710201</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>1661.043536537027</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T34" t="n">
-        <v>1439.276921106553</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U34" t="n">
-        <v>1150.174054232196</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V34" t="n">
-        <v>895.4895660263095</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W34" t="n">
-        <v>606.0723959893489</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X34" t="n">
-        <v>606.0723959893489</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.0723959893489</v>
+        <v>1540.336209604299</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1308.370295943747</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C35" t="n">
-        <v>1308.370295943747</v>
+        <v>663.0986074121195</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.370295943747</v>
+        <v>304.832908805369</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7093,16 +7095,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1942.567517572958</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C38" t="n">
-        <v>1942.567517572958</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.301818966208</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883006</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612892</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X38" t="n">
-        <v>2719.306689612892</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y38" t="n">
-        <v>2329.16735763708</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.7875500159902</v>
+        <v>271.9735439263272</v>
       </c>
       <c r="C40" t="n">
-        <v>775.7875500159902</v>
+        <v>103.0373609984203</v>
       </c>
       <c r="D40" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415546</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983421</v>
+        <v>902.4041387981144</v>
       </c>
       <c r="X40" t="n">
-        <v>775.7875500159902</v>
+        <v>674.4145879000971</v>
       </c>
       <c r="Y40" t="n">
-        <v>775.7875500159902</v>
+        <v>453.622008756567</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1628.178203944119</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C41" t="n">
-        <v>1259.215687003708</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D41" t="n">
-        <v>900.9499883969572</v>
+        <v>1251.839541207228</v>
       </c>
       <c r="E41" t="n">
-        <v>900.9499883969572</v>
+        <v>866.0512886089841</v>
       </c>
       <c r="F41" t="n">
-        <v>489.9640836073497</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G41" t="n">
         <v>406.0926155839476</v>
@@ -7406,55 +7408,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539435</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269321</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008241</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y41" t="n">
-        <v>2014.778044008241</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158128</v>
@@ -7512,28 +7514,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>231.8553933260925</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C43" t="n">
-        <v>216.6287558445191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484844</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610487</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046005</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676399</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696226</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="Y43" t="n">
-        <v>231.8553933260925</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1986.901740067215</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528559</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389512</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912098</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081056</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7682,16 +7684,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3137.106670368228</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W44" t="n">
-        <v>3137.106670368228</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2763.640912107148</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2373.501580131337</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7730,25 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>480.6870701241381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C46" t="n">
-        <v>311.7508871962312</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D46" t="n">
-        <v>311.7508871962312</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242372</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242372</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="V46" t="n">
-        <v>1169.327103036485</v>
+        <v>1259.157560278957</v>
       </c>
       <c r="W46" t="n">
-        <v>1111.117664995925</v>
+        <v>969.7403902419962</v>
       </c>
       <c r="X46" t="n">
-        <v>883.128114097908</v>
+        <v>741.7508393439789</v>
       </c>
       <c r="Y46" t="n">
-        <v>662.3355349543779</v>
+        <v>520.9582602004488</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.82571303096498</v>
+        <v>25.82445471157962</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32.58726560787325</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.66716643458592</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8537,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143859</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9641,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,16 +10117,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>201.9664098701135</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>52.34641664788739</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.609379296496627e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>139.5326190389247</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>27.26433768453285</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>307.373551532013</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>296.7574771839105</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>35.80215787152343</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>264.8700839405201</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>93.17631137821891</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>172.2573809594894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>153.1883133533575</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>233.3414111029288</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02872873825365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>53.73645647354635</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>145.9927856228093</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>10.97950943799984</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>34.14139020830686</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>102.0013691777399</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>78.64635174962896</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.7532162242334</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>89.49498218058426</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>75.90496054965115</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.32522828944224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>153.1883133533584</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>355.5361293272142</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>35.18123914231143</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>306.4732379112248</v>
+        <v>145.9927856228081</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25327,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>69.99732345939694</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>33.30103011898899</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>23.25917518540882</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>112.4554808976378</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>219.0713091095088</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>362.4386851003788</v>
       </c>
       <c r="G41" t="n">
-        <v>327.8889723102854</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1724499918702</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>21.59472895491518</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>141.1380987416028</v>
+        <v>159.6364462020391</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.7111210247036</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>228.8956546764367</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934883.4998364385</v>
+        <v>935815.5259715574</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774562.8002647196</v>
+        <v>774562.8002647195</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935087.4086305358</v>
+        <v>774562.8002647194</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935087.4086305358</v>
+        <v>774562.8002647195</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935087.4086305359</v>
+        <v>774562.8002647195</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858919.1641284284</v>
+        <v>774562.8002647196</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774562.8002647194</v>
+        <v>774562.8002647195</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774562.8002647195</v>
+        <v>774562.8002647194</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774562.8002647193</v>
+        <v>774562.8002647195</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651772</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
+        <v>426246.3737136505</v>
+      </c>
+      <c r="G2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>426246.3737136509</v>
+      </c>
+      <c r="J2" t="n">
         <v>426246.3737136508</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="I2" t="n">
-        <v>496352.2336087289</v>
-      </c>
-      <c r="J2" t="n">
-        <v>496352.2336087288</v>
-      </c>
-      <c r="K2" t="n">
-        <v>496352.2336087287</v>
-      </c>
       <c r="L2" t="n">
-        <v>463087.3010112922</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="M2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="N2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="O2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136509</v>
+        <v>426246.3737136506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>59547.19369568366</v>
+        <v>176672.624173949</v>
       </c>
       <c r="D3" t="n">
-        <v>334759.7268684697</v>
+        <v>223886.3093819083</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736063</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>13844.92355855685</v>
+        <v>41076.98154640775</v>
       </c>
       <c r="L3" t="n">
-        <v>38161.52430744205</v>
+        <v>54988.29121946844</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>230534.0172588896</v>
+        <v>198633.6358683833</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>7940.571207054563</v>
+      </c>
+      <c r="F4" t="n">
         <v>7940.571207054552</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7940.571207054564</v>
       </c>
       <c r="G4" t="n">
         <v>7940.571207054552</v>
       </c>
       <c r="H4" t="n">
-        <v>7940.571207054564</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
-        <v>42446.30206450354</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="J4" t="n">
-        <v>42446.30206450354</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="K4" t="n">
-        <v>42446.30206450354</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="L4" t="n">
-        <v>26073.47940864853</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="M4" t="n">
-        <v>7940.571207054564</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="N4" t="n">
-        <v>7940.571207054564</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="O4" t="n">
-        <v>7940.571207054571</v>
+        <v>7940.571207054616</v>
       </c>
       <c r="P4" t="n">
-        <v>7940.571207054571</v>
+        <v>7940.571207054552</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>67328.00164343664</v>
+        <v>75746.87167923109</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26485,28 +26487,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="L5" t="n">
-        <v>85907.99125817031</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-476738.5450285134</v>
+        <v>-476738.5450285136</v>
       </c>
       <c r="C6" t="n">
-        <v>155741.8935671671</v>
+        <v>62097.97444361341</v>
       </c>
       <c r="D6" t="n">
-        <v>-48864.39340500103</v>
+        <v>62009.02408156049</v>
       </c>
       <c r="E6" t="n">
-        <v>161926.4821280123</v>
+        <v>161926.4821280125</v>
       </c>
       <c r="F6" t="n">
-        <v>343999.461945203</v>
+        <v>343999.4619452027</v>
       </c>
       <c r="G6" t="n">
-        <v>343999.461945203</v>
+        <v>343999.4619452028</v>
       </c>
       <c r="H6" t="n">
-        <v>343999.4619452029</v>
+        <v>343999.4619452027</v>
       </c>
       <c r="I6" t="n">
-        <v>260963.4466931511</v>
+        <v>343999.4619452032</v>
       </c>
       <c r="J6" t="n">
-        <v>288523.2588713976</v>
+        <v>275000.3075260888</v>
       </c>
       <c r="K6" t="n">
-        <v>343677.4897319548</v>
+        <v>302922.4803987952</v>
       </c>
       <c r="L6" t="n">
-        <v>312944.3060370313</v>
+        <v>289011.1707257344</v>
       </c>
       <c r="M6" t="n">
-        <v>343999.4619452029</v>
+        <v>296447.1961517879</v>
       </c>
       <c r="N6" t="n">
         <v>343999.4619452029</v>
       </c>
       <c r="O6" t="n">
+        <v>343999.4619452029</v>
+      </c>
+      <c r="P6" t="n">
         <v>343999.4619452028</v>
-      </c>
-      <c r="P6" t="n">
-        <v>343999.461945203</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>660.3626675392566</v>
+        <v>751.4467899908054</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>317.5081495243562</v>
+        <v>423.3179548919659</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1194.51293060493</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1194.51293060493</v>
-      </c>
       <c r="K4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>1022.218078704546</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26960,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>46.30765376977826</v>
+        <v>137.3917762213271</v>
       </c>
       <c r="D3" t="n">
-        <v>273.7022245782827</v>
+        <v>182.6181021267338</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>53.79426952284996</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="D4" t="n">
-        <v>323.0766825756828</v>
+        <v>217.2668772080729</v>
       </c>
       <c r="E4" t="n">
+        <v>190.8166233022536</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.7138800015064</v>
+      </c>
+      <c r="K4" t="n">
+        <v>159.6040748904594</v>
+      </c>
+      <c r="L4" t="n">
+        <v>217.2668772080731</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022537</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>363.1114752026377</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>53.79426952284996</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150.7818306752988</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>53.79426952284996</v>
+        <v>159.6040748904596</v>
       </c>
       <c r="L4" t="n">
-        <v>323.0766825756828</v>
+        <v>217.2668772080729</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>264.9578041138323</v>
       </c>
       <c r="F2" t="n">
-        <v>187.431034882095</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>98.3849132848358</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>124.3800148454305</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>124.661666622127</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>51.77179171525538</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>89.36789621735522</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8954238802895</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.5255397910662</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>211.4747939775862</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1332749645073</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>10.24410894577869</v>
+        <v>255.8888607793751</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>111.1899689935151</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.2998135846987</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.439508963986</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>137.3651910497576</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>118.6658960241738</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.800161433388</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6397185918102</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>119.6393322351294</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>98.83144136254481</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>188.0983110469352</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>124.5494630405393</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>144.3538343053464</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>9.858137287250401</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6547242916151</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>27.18769515150315</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
-        <v>102.3462582524912</v>
+        <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>225.3164058454673</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>337.6908851095345</v>
+        <v>384.2687421599715</v>
       </c>
       <c r="L5" t="n">
-        <v>418.9354036490502</v>
+        <v>476.719354015976</v>
       </c>
       <c r="M5" t="n">
-        <v>466.1463567700602</v>
+        <v>530.4421353285347</v>
       </c>
       <c r="N5" t="n">
-        <v>473.6890921636117</v>
+        <v>539.0252436383292</v>
       </c>
       <c r="O5" t="n">
-        <v>447.291177488864</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>381.7526715396161</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>286.6803578461503</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>166.7598247831671</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>60.49452979517915</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
-        <v>11.62105558654511</v>
+        <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2123779433292079</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.420402718858023</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>13.71809994265512</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>48.90421641682231</v>
+        <v>55.64959718328135</v>
       </c>
       <c r="J6" t="n">
-        <v>134.1969077496522</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>229.3638899131397</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>308.4080552502915</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8976538088948</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>369.4230737963243</v>
+        <v>420.3777660345733</v>
       </c>
       <c r="O6" t="n">
-        <v>337.9499398679439</v>
+        <v>384.5635284587851</v>
       </c>
       <c r="P6" t="n">
-        <v>271.2346209370203</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.3131610949295</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>88.18956529892188</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>26.38335751913915</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>5.725219730835628</v>
+        <v>6.514901886807075</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09344754729329106</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.19081792507079</v>
+        <v>1.355067981950633</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5874539156294</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>35.81114269212887</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>84.19082730250487</v>
+        <v>95.80330632390972</v>
       </c>
       <c r="K7" t="n">
-        <v>138.3513916582245</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>177.0421486055246</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>186.6661225635967</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>182.227619388333</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>168.316700900006</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>144.0240152285617</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>99.71476279842774</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>53.54350415818298</v>
+        <v>60.92878398843479</v>
       </c>
       <c r="S7" t="n">
-        <v>20.75270874873368</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.088040225302467</v>
+        <v>5.789835922879974</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06495370500386137</v>
+        <v>0.07391279901548914</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,10 +32548,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,28 +32560,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O24" t="n">
         <v>557.7086478970249</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -34366,7 +34368,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953998</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003808</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138794</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.27050131878099</v>
+        <v>75.34849544108107</v>
       </c>
       <c r="K5" t="n">
-        <v>117.601034064554</v>
+        <v>164.178891114991</v>
       </c>
       <c r="L5" t="n">
-        <v>183.168988679063</v>
+        <v>240.9529390459888</v>
       </c>
       <c r="M5" t="n">
-        <v>235.8001235427875</v>
+        <v>300.095902101262</v>
       </c>
       <c r="N5" t="n">
-        <v>244.2760285670208</v>
+        <v>309.6121800417383</v>
       </c>
       <c r="O5" t="n">
-        <v>217.1929660671773</v>
+        <v>278.8880411896231</v>
       </c>
       <c r="P5" t="n">
-        <v>150.5196757843466</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>64.3746679717008</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>133.4503164233943</v>
+        <v>25.86912147665353</v>
       </c>
       <c r="K6" t="n">
-        <v>124.109716546654</v>
+        <v>387.6239533881393</v>
       </c>
       <c r="L6" t="n">
-        <v>169.8536754704173</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7636198868765</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>238.081361712991</v>
+        <v>289.03605395124</v>
       </c>
       <c r="O6" t="n">
-        <v>195.3536954234995</v>
+        <v>241.9672840143407</v>
       </c>
       <c r="P6" t="n">
-        <v>137.2602135226901</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.33138700890797</v>
+        <v>77.00716004566256</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144308852</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.444126207236948</v>
       </c>
       <c r="K7" t="n">
-        <v>116.0818998323417</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>204.6321738658408</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>226.2499995254373</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>226.3597917675616</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>192.9018288140456</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>141.3025744934552</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.55271954673336</v>
+        <v>27.30642203691723</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522361</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,19 +36208,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,16 +36363,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525805</v>
@@ -36598,16 +36600,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,16 +36837,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>740.88752570034</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36911,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>389.5377032032878</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37084,10 +37086,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37786,7 +37788,7 @@
         <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302282</v>
       </c>
       <c r="N41" t="n">
         <v>552.301835412911</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687135</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554003</v>
@@ -38096,7 +38098,7 @@
         <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340052</v>
